--- a/tabular/virus/bfdv-data-updated.xlsx
+++ b/tabular/virus/bfdv-data-updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/virus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3451D8B5-678B-3C4A-8788-71EEDA1D2F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556C36D0-6449-C044-81B1-4FAB64C0FF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{D70F3C82-2308-E344-91EE-6DF013564C4B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24055" uniqueCount="2610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24055" uniqueCount="2611">
   <si>
     <t>id</t>
   </si>
@@ -7864,6 +7864,9 @@
   </si>
   <si>
     <t>host_sci_name_updated</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -56089,7 +56092,7 @@
   <dimension ref="A1:I1285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56106,7 +56109,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2610</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
